--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/18/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/18/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42934</v>
+        <v>3.42602</v>
       </c>
       <c r="C5" t="n">
-        <v>3429.34</v>
+        <v>3426.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124006</v>
+        <v>0.124001</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>4.04294</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>4042.94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155041</v>
+        <v>0.155032</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>4.56524</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>4565.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186012</v>
+        <v>0.186008</v>
       </c>
       <c r="B8" t="n">
-        <v>6.667590000000001</v>
+        <v>4.749350000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.59</v>
+        <v>4749.35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216989</v>
+        <v>0.216984</v>
       </c>
       <c r="B9" t="n">
-        <v>7.86267</v>
+        <v>4.805479999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>7862.67</v>
+        <v>4805.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247923</v>
+        <v>0.24796</v>
       </c>
       <c r="B10" t="n">
-        <v>8.920579999999999</v>
+        <v>4.850680000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>8920.58</v>
+        <v>4850.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278848</v>
+        <v>0.278888</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0202</v>
+        <v>4.88621</v>
       </c>
       <c r="C11" t="n">
-        <v>10020.2</v>
+        <v>4886.21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309773</v>
+        <v>0.309813</v>
       </c>
       <c r="B12" t="n">
-        <v>10.7065</v>
+        <v>4.92227</v>
       </c>
       <c r="C12" t="n">
-        <v>10706.5</v>
+        <v>4922.27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340699</v>
+        <v>0.340734</v>
       </c>
       <c r="B13" t="n">
-        <v>10.7552</v>
+        <v>4.953939999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>10755.2</v>
+        <v>4953.94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371624</v>
+        <v>0.371659</v>
       </c>
       <c r="B14" t="n">
-        <v>10.8241</v>
+        <v>4.98303</v>
       </c>
       <c r="C14" t="n">
-        <v>10824.1</v>
+        <v>4983.03</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402549</v>
+        <v>0.402584</v>
       </c>
       <c r="B15" t="n">
-        <v>10.839</v>
+        <v>5.01126</v>
       </c>
       <c r="C15" t="n">
-        <v>10839</v>
+        <v>5011.26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433474</v>
+        <v>0.433509</v>
       </c>
       <c r="B16" t="n">
-        <v>10.8658</v>
+        <v>5.037500000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>10865.8</v>
+        <v>5037.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464399</v>
+        <v>0.464434</v>
       </c>
       <c r="B17" t="n">
-        <v>10.8861</v>
+        <v>5.063350000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>10886.1</v>
+        <v>5063.35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495324</v>
+        <v>0.495359</v>
       </c>
       <c r="B18" t="n">
-        <v>10.908</v>
+        <v>5.08802</v>
       </c>
       <c r="C18" t="n">
-        <v>10908</v>
+        <v>5088.02</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526249</v>
+        <v>0.526284</v>
       </c>
       <c r="B19" t="n">
-        <v>10.92</v>
+        <v>5.11103</v>
       </c>
       <c r="C19" t="n">
-        <v>10920</v>
+        <v>5111.03</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5571739999999999</v>
+        <v>0.557209</v>
       </c>
       <c r="B20" t="n">
-        <v>10.9329</v>
+        <v>5.1338</v>
       </c>
       <c r="C20" t="n">
-        <v>10932.9</v>
+        <v>5133.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588099</v>
+        <v>0.588134</v>
       </c>
       <c r="B21" t="n">
-        <v>10.9428</v>
+        <v>5.155489999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>10942.8</v>
+        <v>5155.49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191410000000001</v>
+        <v>0.6191759999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>10.9566</v>
+        <v>5.176760000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>10956.6</v>
+        <v>5176.76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650313</v>
+        <v>0.650349</v>
       </c>
       <c r="B23" t="n">
-        <v>10.9605</v>
+        <v>5.19736</v>
       </c>
       <c r="C23" t="n">
-        <v>10960.5</v>
+        <v>5197.36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681486</v>
+        <v>0.681526</v>
       </c>
       <c r="B24" t="n">
-        <v>10.9694</v>
+        <v>5.21741</v>
       </c>
       <c r="C24" t="n">
-        <v>10969.4</v>
+        <v>5217.41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712663</v>
+        <v>0.7126980000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>10.9724</v>
+        <v>5.23692</v>
       </c>
       <c r="C25" t="n">
-        <v>10972.4</v>
+        <v>5236.92</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438360000000001</v>
+        <v>0.7438709999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>10.9807</v>
+        <v>5.25594</v>
       </c>
       <c r="C26" t="n">
-        <v>10980.7</v>
+        <v>5255.94</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775013</v>
+        <v>0.775048</v>
       </c>
       <c r="B27" t="n">
-        <v>10.9788</v>
+        <v>5.27445</v>
       </c>
       <c r="C27" t="n">
-        <v>10978.8</v>
+        <v>5274.45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806185</v>
+        <v>0.80622</v>
       </c>
       <c r="B28" t="n">
-        <v>10.986</v>
+        <v>5.29257</v>
       </c>
       <c r="C28" t="n">
-        <v>10986</v>
+        <v>5292.57</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837358</v>
+        <v>0.8373969999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>10.9829</v>
+        <v>5.31025</v>
       </c>
       <c r="C29" t="n">
-        <v>10982.9</v>
+        <v>5310.25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685349999999999</v>
+        <v>0.86857</v>
       </c>
       <c r="B30" t="n">
-        <v>10.9852</v>
+        <v>5.327529999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>10985.2</v>
+        <v>5327.53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899707</v>
+        <v>0.899742</v>
       </c>
       <c r="B31" t="n">
-        <v>10.9853</v>
+        <v>5.34441</v>
       </c>
       <c r="C31" t="n">
-        <v>10985.3</v>
+        <v>5344.41</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.93088</v>
+        <v>0.9309190000000001</v>
       </c>
       <c r="B32" t="n">
-        <v>10.981</v>
+        <v>5.36097</v>
       </c>
       <c r="C32" t="n">
-        <v>10981</v>
+        <v>5360.97</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620570000000001</v>
+        <v>0.9620919999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>10.9806</v>
+        <v>5.37718</v>
       </c>
       <c r="C33" t="n">
-        <v>10980.6</v>
+        <v>5377.18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993229</v>
+        <v>0.993265</v>
       </c>
       <c r="B34" t="n">
-        <v>10.9776</v>
+        <v>5.39307</v>
       </c>
       <c r="C34" t="n">
-        <v>10977.6</v>
+        <v>5393.07</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02454</v>
+        <v>1.02457</v>
       </c>
       <c r="B35" t="n">
-        <v>10.9718</v>
+        <v>5.40867</v>
       </c>
       <c r="C35" t="n">
-        <v>10971.8</v>
+        <v>5408.67</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05592</v>
+        <v>1.05595</v>
       </c>
       <c r="B36" t="n">
-        <v>10.9672</v>
+        <v>5.42399</v>
       </c>
       <c r="C36" t="n">
-        <v>10967.2</v>
+        <v>5423.99</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.0873</v>
+        <v>1.08733</v>
       </c>
       <c r="B37" t="n">
-        <v>10.9621</v>
+        <v>5.43907</v>
       </c>
       <c r="C37" t="n">
-        <v>10962.1</v>
+        <v>5439.07</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11869</v>
+        <v>1.11872</v>
       </c>
       <c r="B38" t="n">
-        <v>10.9552</v>
+        <v>5.45389</v>
       </c>
       <c r="C38" t="n">
-        <v>10955.2</v>
+        <v>5453.89</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.15007</v>
+        <v>1.15009</v>
       </c>
       <c r="B39" t="n">
-        <v>10.9471</v>
+        <v>5.468439999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>10947.1</v>
+        <v>5468.44</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18144</v>
+        <v>1.18148</v>
       </c>
       <c r="B40" t="n">
-        <v>10.939</v>
+        <v>5.48277</v>
       </c>
       <c r="C40" t="n">
-        <v>10939</v>
+        <v>5482.77</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21283</v>
+        <v>1.21286</v>
       </c>
       <c r="B41" t="n">
-        <v>10.9297</v>
+        <v>5.49685</v>
       </c>
       <c r="C41" t="n">
-        <v>10929.7</v>
+        <v>5496.85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24421</v>
+        <v>1.24424</v>
       </c>
       <c r="B42" t="n">
-        <v>10.9193</v>
+        <v>5.51072</v>
       </c>
       <c r="C42" t="n">
-        <v>10919.3</v>
+        <v>5510.72</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27559</v>
+        <v>1.27562</v>
       </c>
       <c r="B43" t="n">
-        <v>10.9081</v>
+        <v>5.5244</v>
       </c>
       <c r="C43" t="n">
-        <v>10908.1</v>
+        <v>5524.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30697</v>
+        <v>1.307</v>
       </c>
       <c r="B44" t="n">
-        <v>10.8961</v>
+        <v>5.53784</v>
       </c>
       <c r="C44" t="n">
-        <v>10896.1</v>
+        <v>5537.84</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33835</v>
+        <v>1.33838</v>
       </c>
       <c r="B45" t="n">
-        <v>10.8826</v>
+        <v>5.551130000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>10882.6</v>
+        <v>5551.13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36973</v>
+        <v>1.36976</v>
       </c>
       <c r="B46" t="n">
-        <v>10.8674</v>
+        <v>5.564229999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>10867.4</v>
+        <v>5564.23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.40111</v>
+        <v>1.40114</v>
       </c>
       <c r="B47" t="n">
-        <v>10.8511</v>
+        <v>5.577170000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>10851.1</v>
+        <v>5577.17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.43249</v>
+        <v>1.43252</v>
       </c>
       <c r="B48" t="n">
-        <v>10.8341</v>
+        <v>5.58989</v>
       </c>
       <c r="C48" t="n">
-        <v>10834.1</v>
+        <v>5589.89</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46387</v>
+        <v>1.46355</v>
       </c>
       <c r="B49" t="n">
-        <v>10.8156</v>
+        <v>5.60244</v>
       </c>
       <c r="C49" t="n">
-        <v>10815.6</v>
+        <v>5602.44</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49525</v>
+        <v>1.49451</v>
       </c>
       <c r="B50" t="n">
-        <v>10.7962</v>
+        <v>5.61483</v>
       </c>
       <c r="C50" t="n">
-        <v>10796.2</v>
+        <v>5614.83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52663</v>
+        <v>1.52548</v>
       </c>
       <c r="B51" t="n">
-        <v>10.7755</v>
+        <v>5.62706</v>
       </c>
       <c r="C51" t="n">
-        <v>10775.5</v>
+        <v>5627.06</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55801</v>
+        <v>1.55645</v>
       </c>
       <c r="B52" t="n">
-        <v>10.7534</v>
+        <v>5.63916</v>
       </c>
       <c r="C52" t="n">
-        <v>10753.4</v>
+        <v>5639.16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58939</v>
+        <v>1.58742</v>
       </c>
       <c r="B53" t="n">
-        <v>10.7298</v>
+        <v>5.6511</v>
       </c>
       <c r="C53" t="n">
-        <v>10729.8</v>
+        <v>5651.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.62077</v>
+        <v>1.61839</v>
       </c>
       <c r="B54" t="n">
-        <v>10.7046</v>
+        <v>5.66288</v>
       </c>
       <c r="C54" t="n">
-        <v>10704.6</v>
+        <v>5662.88</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.65216</v>
+        <v>1.64935</v>
       </c>
       <c r="B55" t="n">
-        <v>10.6773</v>
+        <v>5.674510000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>10677.3</v>
+        <v>5674.51</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.68354</v>
+        <v>1.68032</v>
       </c>
       <c r="B56" t="n">
-        <v>10.6483</v>
+        <v>5.68598</v>
       </c>
       <c r="C56" t="n">
-        <v>10648.3</v>
+        <v>5685.98</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.71492</v>
+        <v>1.71129</v>
       </c>
       <c r="B57" t="n">
-        <v>10.6168</v>
+        <v>5.69729</v>
       </c>
       <c r="C57" t="n">
-        <v>10616.8</v>
+        <v>5697.29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.7463</v>
+        <v>1.74226</v>
       </c>
       <c r="B58" t="n">
-        <v>10.5837</v>
+        <v>5.70848</v>
       </c>
       <c r="C58" t="n">
-        <v>10583.7</v>
+        <v>5708.48</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77768</v>
+        <v>1.77323</v>
       </c>
       <c r="B59" t="n">
-        <v>10.5487</v>
+        <v>5.71954</v>
       </c>
       <c r="C59" t="n">
-        <v>10548.7</v>
+        <v>5719.54</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80906</v>
+        <v>1.80419</v>
       </c>
       <c r="B60" t="n">
-        <v>10.5118</v>
+        <v>5.73045</v>
       </c>
       <c r="C60" t="n">
-        <v>10511.8</v>
+        <v>5730.45</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.84028</v>
+        <v>1.83516</v>
       </c>
       <c r="B61" t="n">
-        <v>10.4725</v>
+        <v>5.74124</v>
       </c>
       <c r="C61" t="n">
-        <v>10472.5</v>
+        <v>5741.24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.87124</v>
+        <v>1.86613</v>
       </c>
       <c r="B62" t="n">
-        <v>10.4307</v>
+        <v>5.7519</v>
       </c>
       <c r="C62" t="n">
-        <v>10430.7</v>
+        <v>5751.9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.90199</v>
+        <v>1.8971</v>
       </c>
       <c r="B63" t="n">
-        <v>10.3867</v>
+        <v>5.762420000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>10386.7</v>
+        <v>5762.42</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.93326</v>
+        <v>1.92806</v>
       </c>
       <c r="B64" t="n">
-        <v>10.3388</v>
+        <v>5.77283</v>
       </c>
       <c r="C64" t="n">
-        <v>10338.8</v>
+        <v>5772.83</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.96406</v>
+        <v>1.95903</v>
       </c>
       <c r="B65" t="n">
-        <v>10.2888</v>
+        <v>5.78314</v>
       </c>
       <c r="C65" t="n">
-        <v>10288.8</v>
+        <v>5783.14</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.99526</v>
+        <v>1.99</v>
       </c>
       <c r="B66" t="n">
-        <v>10.2354</v>
+        <v>5.7933</v>
       </c>
       <c r="C66" t="n">
-        <v>10235.4</v>
+        <v>5793.3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.02616</v>
+        <v>2.02057</v>
       </c>
       <c r="B67" t="n">
-        <v>10.1795</v>
+        <v>5.80336</v>
       </c>
       <c r="C67" t="n">
-        <v>10179.5</v>
+        <v>5803.36</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05725</v>
+        <v>2.05113</v>
       </c>
       <c r="B68" t="n">
-        <v>10.1193</v>
+        <v>5.81331</v>
       </c>
       <c r="C68" t="n">
-        <v>10119.3</v>
+        <v>5813.31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.0881</v>
+        <v>2.08168</v>
       </c>
       <c r="B69" t="n">
-        <v>10.0561</v>
+        <v>5.82313</v>
       </c>
       <c r="C69" t="n">
-        <v>10056.1</v>
+        <v>5823.13</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11938</v>
+        <v>2.11224</v>
       </c>
       <c r="B70" t="n">
-        <v>9.987879999999999</v>
+        <v>5.83284</v>
       </c>
       <c r="C70" t="n">
-        <v>9987.879999999999</v>
+        <v>5832.84</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.1502</v>
+        <v>2.14279</v>
       </c>
       <c r="B71" t="n">
-        <v>9.915379999999999</v>
+        <v>5.84243</v>
       </c>
       <c r="C71" t="n">
-        <v>9915.379999999999</v>
+        <v>5842.43</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.18113</v>
+        <v>2.17335</v>
       </c>
       <c r="B72" t="n">
-        <v>9.83808</v>
+        <v>5.8519</v>
       </c>
       <c r="C72" t="n">
-        <v>9838.08</v>
+        <v>5851.9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.21226</v>
+        <v>2.20391</v>
       </c>
       <c r="B73" t="n">
-        <v>9.755469999999999</v>
+        <v>5.86129</v>
       </c>
       <c r="C73" t="n">
-        <v>9755.469999999999</v>
+        <v>5861.29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.24323</v>
+        <v>2.23446</v>
       </c>
       <c r="B74" t="n">
-        <v>9.668360000000002</v>
+        <v>5.87058</v>
       </c>
       <c r="C74" t="n">
-        <v>9668.360000000001</v>
+        <v>5870.58</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.27417</v>
+        <v>2.26501</v>
       </c>
       <c r="B75" t="n">
-        <v>9.575610000000001</v>
+        <v>5.879770000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>9575.610000000001</v>
+        <v>5879.77</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.30517</v>
+        <v>2.29565</v>
       </c>
       <c r="B76" t="n">
-        <v>9.478110000000001</v>
+        <v>5.8889</v>
       </c>
       <c r="C76" t="n">
-        <v>9478.110000000001</v>
+        <v>5888.9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.3361</v>
+        <v>2.32723</v>
       </c>
       <c r="B77" t="n">
-        <v>9.376950000000001</v>
+        <v>5.8982</v>
       </c>
       <c r="C77" t="n">
-        <v>9376.950000000001</v>
+        <v>5898.2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.3673</v>
+        <v>2.3588</v>
       </c>
       <c r="B78" t="n">
-        <v>9.270430000000001</v>
+        <v>5.90739</v>
       </c>
       <c r="C78" t="n">
-        <v>9270.43</v>
+        <v>5907.39</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39794</v>
+        <v>2.39037</v>
       </c>
       <c r="B79" t="n">
-        <v>9.1614</v>
+        <v>5.91646</v>
       </c>
       <c r="C79" t="n">
-        <v>9161.4</v>
+        <v>5916.46</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42927</v>
+        <v>2.42194</v>
       </c>
       <c r="B80" t="n">
-        <v>9.0465</v>
+        <v>5.92545</v>
       </c>
       <c r="C80" t="n">
-        <v>9046.5</v>
+        <v>5925.45</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.46108</v>
+        <v>2.45352</v>
       </c>
       <c r="B81" t="n">
-        <v>8.925559999999999</v>
+        <v>5.934340000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>8925.559999999999</v>
+        <v>5934.34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.49204</v>
+        <v>2.48509</v>
       </c>
       <c r="B82" t="n">
-        <v>8.803270000000001</v>
+        <v>5.94313</v>
       </c>
       <c r="C82" t="n">
-        <v>8803.27</v>
+        <v>5943.13</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.52232</v>
+        <v>2.51666</v>
       </c>
       <c r="B83" t="n">
-        <v>8.680899999999999</v>
+        <v>5.951840000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>8680.9</v>
+        <v>5951.84</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.55383</v>
+        <v>2.54823</v>
       </c>
       <c r="B84" t="n">
-        <v>8.550690000000001</v>
+        <v>5.96047</v>
       </c>
       <c r="C84" t="n">
-        <v>8550.690000000001</v>
+        <v>5960.47</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.58512</v>
+        <v>2.57981</v>
       </c>
       <c r="B85" t="n">
-        <v>8.416920000000001</v>
+        <v>5.969</v>
       </c>
       <c r="C85" t="n">
-        <v>8416.92</v>
+        <v>5969</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61572</v>
+        <v>2.61138</v>
       </c>
       <c r="B86" t="n">
-        <v>8.284750000000001</v>
+        <v>5.97745</v>
       </c>
       <c r="C86" t="n">
-        <v>8284.75</v>
+        <v>5977.45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64559</v>
+        <v>2.64296</v>
       </c>
       <c r="B87" t="n">
-        <v>8.15442</v>
+        <v>5.985810000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>8154.42</v>
+        <v>5985.81</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67735</v>
+        <v>2.67453</v>
       </c>
       <c r="B88" t="n">
-        <v>8.014200000000001</v>
+        <v>5.99407</v>
       </c>
       <c r="C88" t="n">
-        <v>8014.2</v>
+        <v>5994.07</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70935</v>
+        <v>2.7061</v>
       </c>
       <c r="B89" t="n">
-        <v>7.87351</v>
+        <v>6.00225</v>
       </c>
       <c r="C89" t="n">
-        <v>7873.51</v>
+        <v>6002.25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.74025</v>
+        <v>2.73729</v>
       </c>
       <c r="B90" t="n">
-        <v>7.736479999999999</v>
+        <v>6.01034</v>
       </c>
       <c r="C90" t="n">
-        <v>7736.48</v>
+        <v>6010.34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.77065</v>
+        <v>2.76801</v>
       </c>
       <c r="B91" t="n">
-        <v>7.60308</v>
+        <v>6.01837</v>
       </c>
       <c r="C91" t="n">
-        <v>7603.08</v>
+        <v>6018.37</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.80028</v>
+        <v>2.79873</v>
       </c>
       <c r="B92" t="n">
-        <v>7.473170000000001</v>
+        <v>6.02631</v>
       </c>
       <c r="C92" t="n">
-        <v>7473.17</v>
+        <v>6026.31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.83184</v>
+        <v>2.82945</v>
       </c>
       <c r="B93" t="n">
-        <v>7.33452</v>
+        <v>6.03418</v>
       </c>
       <c r="C93" t="n">
-        <v>7334.52</v>
+        <v>6034.18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.86445</v>
+        <v>2.86017</v>
       </c>
       <c r="B94" t="n">
-        <v>7.194260000000001</v>
+        <v>6.04195</v>
       </c>
       <c r="C94" t="n">
-        <v>7194.26</v>
+        <v>6041.95</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.89553</v>
+        <v>2.8909</v>
       </c>
       <c r="B95" t="n">
-        <v>7.05798</v>
+        <v>6.04966</v>
       </c>
       <c r="C95" t="n">
-        <v>7057.98</v>
+        <v>6049.66</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92662</v>
+        <v>2.92161</v>
       </c>
       <c r="B96" t="n">
-        <v>6.925890000000001</v>
+        <v>6.057270000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>6925.89</v>
+        <v>6057.27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95659</v>
+        <v>2.95233</v>
       </c>
       <c r="B97" t="n">
-        <v>6.79722</v>
+        <v>6.06483</v>
       </c>
       <c r="C97" t="n">
-        <v>6797.22</v>
+        <v>6064.83</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98585</v>
+        <v>2.98305</v>
       </c>
       <c r="B98" t="n">
-        <v>6.6727</v>
+        <v>6.0723</v>
       </c>
       <c r="C98" t="n">
-        <v>6672.7</v>
+        <v>6072.3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01702</v>
+        <v>3.01377</v>
       </c>
       <c r="B99" t="n">
-        <v>6.54345</v>
+        <v>6.0797</v>
       </c>
       <c r="C99" t="n">
-        <v>6543.45</v>
+        <v>6079.7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04958</v>
+        <v>3.04449</v>
       </c>
       <c r="B100" t="n">
-        <v>6.40596</v>
+        <v>6.087020000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>6405.96</v>
+        <v>6087.02</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.08158</v>
+        <v>3.07521</v>
       </c>
       <c r="B101" t="n">
-        <v>6.27353</v>
+        <v>6.09425</v>
       </c>
       <c r="C101" t="n">
-        <v>6273.53</v>
+        <v>6094.25</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.11358</v>
+        <v>3.10593</v>
       </c>
       <c r="B102" t="n">
-        <v>6.145020000000001</v>
+        <v>6.10142</v>
       </c>
       <c r="C102" t="n">
-        <v>6145.02</v>
+        <v>6101.42</v>
       </c>
     </row>
   </sheetData>
